--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2674224.838694061</v>
+        <v>-2676961.151715295</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>295.7880427010237</v>
+        <v>23.41994504831913</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>47.65883542934952</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.781160222249884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>193.3921981866896</v>
       </c>
       <c r="X5" t="n">
-        <v>97.00614067381021</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>8.90616225919158</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>37.3483497977251</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1111,7 +1111,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>46.66770858875444</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>111.7255193885763</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>154.5540398068007</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>119.8771120686739</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428213</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596503</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C25" t="n">
         <v>142.9621736065881</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.9811888265255</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X25" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="26">
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652576</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652547</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652537</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541838</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808201</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352486</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>350.0225872761079</v>
+        <v>141.276945881932</v>
       </c>
       <c r="C2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="D2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,34 +4346,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.227517577121</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.761759316041</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>736.6224273402297</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217535</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118699</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.639966294861</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
         <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800312</v>
+        <v>99.38702437542688</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800312</v>
+        <v>99.38702437542688</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800312</v>
+        <v>99.38702437542688</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,7 +4507,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
@@ -4519,19 +4519,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485143</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426274</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056668</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764946</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.24678656800312</v>
+        <v>281.0354892056666</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1621.991392838317</v>
+        <v>1228.647807131574</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838317</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4598,19 +4598,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583055</v>
+        <v>1988.713405456775</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.591232902438</v>
+        <v>1615.247647195695</v>
       </c>
       <c r="Y5" t="n">
-        <v>2008.591232902438</v>
+        <v>1615.247647195695</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,37 +4632,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
         <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.63996629486</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.1367340659135</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C7" t="n">
-        <v>198.1367340659135</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1598.720514218209</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1402.091766378071</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1179.113285572806</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>889.9949480766438</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>889.9949480766438</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W7" t="n">
-        <v>600.5777780396833</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X7" t="n">
-        <v>600.5777780396833</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y7" t="n">
-        <v>379.7851988961531</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="8">
@@ -4778,55 +4778,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1230.118083357703</v>
+        <v>956.3723032820415</v>
       </c>
       <c r="C8" t="n">
-        <v>1230.118083357703</v>
+        <v>587.4097863416298</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.118083357703</v>
+        <v>587.4097863416298</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
         <v>2437.640120926626</v>
@@ -4838,16 +4838,16 @@
         <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583056</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.723173594595</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.257415333515</v>
+        <v>1733.111475321975</v>
       </c>
       <c r="Y8" t="n">
-        <v>1230.118083357703</v>
+        <v>1342.972143346163</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
@@ -4896,7 +4896,7 @@
         <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
         <v>2214.708848710445</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>347.89877828689</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>347.89877828689</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800312</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329318</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V10" t="n">
-        <v>673.036065727045</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="W10" t="n">
-        <v>673.036065727045</v>
+        <v>504.0139700109311</v>
       </c>
       <c r="X10" t="n">
-        <v>551.9480737384855</v>
+        <v>504.0139700109311</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>504.0139700109311</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5124,10 +5124,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5179,16 +5179,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5650,16 +5650,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,10 +5768,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5838,7 +5838,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,22 +6005,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E25" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F25" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384017</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
         <v>483.825546038073</v>
@@ -6160,19 +6160,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q25" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
@@ -6190,7 +6190,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6388,7 +6388,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6595,64 +6595,64 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6661,10 +6661,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,19 +6771,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,13 +6956,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,19 +7008,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7245,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7369,10 +7369,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7728,10 +7728,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7795,7 +7795,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,34 +7804,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954153</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7843,7 +7843,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>294.8344935184732</v>
+        <v>294.8344935184735</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.449012614385</v>
       </c>
       <c r="P6" t="n">
-        <v>294.8344935184728</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>294.8344935184725</v>
       </c>
       <c r="P9" t="n">
-        <v>294.8344935184728</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>69.48484906998385</v>
+        <v>341.8529467226884</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>248.4644354452395</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,7 +22562,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>187.1603202505057</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.8034931298449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393022</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.36835372228703</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -26372,25 +26372,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363184</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27111.73467492334</v>
+        <v>27111.73467492337</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
@@ -26424,7 +26424,7 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719711</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
@@ -26436,28 +26436,28 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481315</v>
       </c>
       <c r="J4" t="n">
         <v>15498.22772481313</v>
       </c>
       <c r="K4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481319</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481312</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481321</v>
       </c>
       <c r="O4" t="n">
         <v>15498.22772481313</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481315</v>
+        <v>15498.22772481314</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1234801.290690688</v>
+        <v>-1235265.587482712</v>
       </c>
       <c r="C6" t="n">
         <v>-226051.635986589</v>
@@ -26528,37 +26528,37 @@
         <v>-226051.635986589</v>
       </c>
       <c r="E6" t="n">
-        <v>-616115.3399101726</v>
+        <v>-616150.0778356079</v>
       </c>
       <c r="F6" t="n">
-        <v>-108629.8982856267</v>
+        <v>-108664.6362110625</v>
       </c>
       <c r="G6" t="n">
-        <v>-108629.8982856268</v>
+        <v>-108664.6362110625</v>
       </c>
       <c r="H6" t="n">
-        <v>-108629.8982856268</v>
+        <v>-108664.6362110625</v>
       </c>
       <c r="I6" t="n">
         <v>-138090.0615723603</v>
       </c>
       <c r="J6" t="n">
-        <v>-286267.5213887112</v>
+        <v>-286267.5213887111</v>
       </c>
       <c r="K6" t="n">
-        <v>-118662.3435787285</v>
+        <v>-118662.3435787286</v>
       </c>
       <c r="L6" t="n">
-        <v>-118662.3435787285</v>
+        <v>-118662.3435787286</v>
       </c>
       <c r="M6" t="n">
         <v>-251269.6373076552</v>
       </c>
       <c r="N6" t="n">
-        <v>-138090.0615723603</v>
+        <v>-138090.0615723604</v>
       </c>
       <c r="O6" t="n">
-        <v>-118662.3435787285</v>
+        <v>-118662.3435787284</v>
       </c>
       <c r="P6" t="n">
         <v>-118662.3435787286</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,25 +26914,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>5.575027619040786e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>5.575027619040786e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.4659346270223</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>113.8582323118996</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>98.77512721721965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>155.8487705307234</v>
       </c>
       <c r="X5" t="n">
-        <v>272.7249600046588</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>157.4004377856126</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>64.20922262184851</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>335.2626614835074</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>237.5154493288367</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>25.27794037513655</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>105.8325433203633</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31844,31 +31844,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948335</v>
+        <v>233.9389431948339</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32558,31 +32558,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948329</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>544.5140226420056</v>
+        <v>544.5140226420058</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>521.873694610508</v>
       </c>
       <c r="P6" t="n">
-        <v>544.5140226420051</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35264,10 +35264,10 @@
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>630.2591755145955</v>
       </c>
       <c r="P9" t="n">
-        <v>544.5140226420051</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281522</v>
+        <v>91.80490927281556</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281453</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O25" t="n">
         <v>397.5465471980852</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37227,13 +37227,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317824</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
